--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/correct_predictions_123.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,37 +491,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Home Point Recorded Taking off .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Home Point Recorded</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/correct_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem1/123/correct_predictions_123.xlsx
@@ -476,12 +476,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>0-12</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -491,37 +491,37 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SD card speed low Change card .</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles Fly with caution .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Change card</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4-5</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SD card speed low</t>
+          <t>Change card</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -557,21 +557,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
+          <t>SD card speed low Change card .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>SD card speed low</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -596,12 +596,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -617,21 +617,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
+          <t>Abnormal compass function or GPS signal detected Aircraft switched to ATTI mode .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered</t>
+          <t>Abnormal compass function or GPS signal detected</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -656,12 +656,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Aircraft is returning home</t>
+          <t>Advanced RTH Image Transmission Recovered</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -677,21 +677,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
+          <t>Advanced RTH Image Transmission Recovered Aircraft is returning home .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak</t>
+          <t>Aircraft is returning home</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6-10</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -716,12 +716,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0-5</t>
+          <t>6-10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -737,21 +737,21 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
+          <t>Downward Obstacle Sensing is not functioning Ambient Light is too weak .</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance has been disabled</t>
+          <t>Downward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -776,12 +776,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Landing gear lowered</t>
+          <t>Obstacle Avoidance has been disabled</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -797,16 +797,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Home Point Recorded Taking off .</t>
+          <t>Landing gear lowered Obstacle Avoidance has been disabled .</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Home Point Recorded</t>
+          <t>Landing gear lowered</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
